--- a/Supplementary/Supplementary_Table_S1.xlsx
+++ b/Supplementary/Supplementary_Table_S1.xlsx
@@ -277,10 +277,6 @@
     <t>MiRNAs</t>
   </si>
   <si>
-    <t>Table S1. Prediction results of the top 120 MALAT1-related miRNAs, and ranked by their prediction scores.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reference (PMID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -773,6 +769,10 @@
   </si>
   <si>
     <t>Interaction is known or not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table S1. Prediction results for the top 120 MALAT1-related miRNAs ranked by prediction scores.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,10 +833,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1132,12 +1132,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1147,10 +1147,10 @@
         <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1214,13 +1214,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>90</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1228,13 +1228,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>92</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1304,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1312,13 +1312,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>100</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1326,13 +1326,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>102</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1354,13 +1354,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>105</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1382,13 +1382,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>108</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1410,13 +1410,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>111</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1424,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>113</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1438,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>115</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1494,13 +1494,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>120</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1508,13 +1508,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>122</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1570,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1578,13 +1578,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1612,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1648,13 +1648,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>98</v>
+      <c r="D38" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1662,13 +1662,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1681,8 +1681,8 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>136</v>
+      <c r="D40" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1690,13 +1690,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>147</v>
+      <c r="D41" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1704,13 +1704,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>146</v>
+      <c r="D42" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1723,8 +1723,8 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>139</v>
+      <c r="D43" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1737,8 +1737,8 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>140</v>
+      <c r="D44" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1751,8 +1751,8 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>141</v>
+      <c r="D45" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1760,13 +1760,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1808,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1816,13 +1816,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
         <v>150</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1830,13 +1830,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>152</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1844,13 +1844,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
         <v>154</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1878,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1900,13 +1900,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
         <v>159</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1920,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1942,13 +1942,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1990,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2017,8 +2017,8 @@
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>182</v>
+      <c r="D64" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2031,8 +2031,8 @@
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>147</v>
+      <c r="D65" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2040,13 +2040,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>176</v>
+      <c r="D66" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2059,8 +2059,8 @@
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>153</v>
+      <c r="D67" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2074,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2082,13 +2082,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
         <v>193</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2172,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2208,13 +2208,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2228,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2306,13 +2306,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
         <v>203</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2376,13 +2376,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
+        <v>206</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
         <v>207</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2488,13 +2488,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2507,8 +2507,8 @@
       <c r="C99">
         <v>0</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>175</v>
+      <c r="D99" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2521,8 +2521,8 @@
       <c r="C100">
         <v>1</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>177</v>
+      <c r="D100" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2535,8 +2535,8 @@
       <c r="C101">
         <v>1</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>147</v>
+      <c r="D101" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2549,8 +2549,8 @@
       <c r="C102">
         <v>1</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>176</v>
+      <c r="D102" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2563,8 +2563,8 @@
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>157</v>
+      <c r="D103" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2572,13 +2572,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2586,13 +2586,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
+        <v>171</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
         <v>172</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2628,13 +2628,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2642,13 +2642,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2656,13 +2656,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2670,13 +2670,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2754,13 +2754,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2782,13 +2782,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2810,13 +2810,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
